--- a/biology/Zoologie/Afroblemma_thorelli/Afroblemma_thorelli.xlsx
+++ b/biology/Zoologie/Afroblemma_thorelli/Afroblemma_thorelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afroblemma thorelli, unique représentant du genre Afroblemma, est une espèce d'araignées aranéomorphes de la famille des Tetrablemmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afroblemma thorelli, unique représentant du genre Afroblemma, est une espèce d'araignées aranéomorphes de la famille des Tetrablemmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Angola, au Congo-Kinshasa et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Angola, au Congo-Kinshasa et en Tanzanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (31 mai 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (31 mai 2014) :
 Afroblemma thorelli maniema Lehtinen, 1981
 Afroblemma thorelli thorelli (Brignoli, 1974)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brignoli, 1974 : Tetrablemmidae (Araneae) dell'Angola e della Zaire. Publicaçoes culturais da Companhia de Diamantes de Angola, vol. 88, p. 177-196.
 Lehtinen, 1981 : Spiders of the Oriental-Australian region. III. Tetrablemmidae, with a world revision. Acta Zoologica Fennica, vol. 162, p. 1-151.</t>
